--- a/GATEWAY/A1#111#MEDNEXT/MedNext/Urania_Fse_Evo/v.2.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#MEDNEXT/MedNext/Urania_Fse_Evo/v.2.0.0/report-checklist.xlsx
@@ -763,7 +763,7 @@
     <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.08ca06018a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>"type":"/msg/syntax","title":"Errore di sintassi.","status":400,"instance":"/validation/error"</t>
+    <t>"title":"Errore semantico.","detail":"[ERRORE-b19| L’elemento organizer di tipo 'BATTERY' (@classCode='BATTERY') DEVE contenere l’elemento organizer/code.\n\t\t\t],[W002 | Si consiglia di valorizzare l'elemento organizer[CLUSTER]/code]","status":422,"instance":"/validation/error"</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LDO_CT6_KO</t>
